--- a/Desglose tarifa P-1166.xlsx
+++ b/Desglose tarifa P-1166.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brink\Music\#Z\WORKSPACE\PESTALOZZI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA43A05F-3E5E-4027-9D58-754C35B46979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="12900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="1" r:id="rId1"/>
     <sheet name="2016" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -63,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -497,14 +514,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -514,7 +530,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -524,10 +540,7 @@
     <xf numFmtId="12" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="12" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
@@ -589,14 +602,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -634,7 +650,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -706,7 +722,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -879,10 +895,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -896,105 +912,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="34"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="37"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="29" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="35" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="37"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>1</v>
       </c>
       <c r="F5" s="3">
@@ -1005,10 +1021,10 @@
         <f t="shared" ref="G5:G42" si="1">+F5*16%</f>
         <v>1.3793103448275863</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>10</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>1</v>
       </c>
       <c r="J5" s="3">
@@ -1019,12 +1035,12 @@
         <f t="shared" ref="K5:K6" si="3">+J5*16%</f>
         <v>2.7586206896551726</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
       <c r="B6" s="3">
@@ -1035,10 +1051,10 @@
         <f t="shared" ref="C6:C8" si="5">+B6*16%</f>
         <v>1.3793103448275863</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>10</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>2</v>
       </c>
       <c r="F6" s="3">
@@ -1049,11 +1065,11 @@
         <f t="shared" si="1"/>
         <v>2.7586206896551726</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <f>H5+10</f>
         <v>20</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>1.25</v>
       </c>
       <c r="J6" s="3">
@@ -1064,13 +1080,13 @@
         <f t="shared" si="3"/>
         <v>3.4482758620689657</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <f>L5+5</f>
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
       <c r="B7" s="3">
@@ -1081,11 +1097,11 @@
         <f t="shared" si="5"/>
         <v>2.7586206896551726</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <f>D6+10</f>
         <v>20</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>2.25</v>
       </c>
       <c r="F7" s="3">
@@ -1096,11 +1112,11 @@
         <f t="shared" si="1"/>
         <v>3.4482758620689657</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <f>H6+5</f>
         <v>25</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="18">
         <v>1.5</v>
       </c>
       <c r="J7" s="3">
@@ -1111,13 +1127,13 @@
         <f t="shared" ref="K7:K41" si="7">+J7*16%</f>
         <v>4.1379310344827589</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <f t="shared" ref="L7:L41" si="8">L6+5</f>
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>2.25</v>
       </c>
       <c r="B8" s="3">
@@ -1128,11 +1144,11 @@
         <f t="shared" si="5"/>
         <v>3.4482758620689657</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <f>D7+5</f>
         <v>25</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>2.5</v>
       </c>
       <c r="F8" s="3">
@@ -1143,11 +1159,11 @@
         <f t="shared" si="1"/>
         <v>4.1379310344827589</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <f t="shared" ref="H8:H42" si="9">H7+5</f>
         <v>30</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>1.75</v>
       </c>
       <c r="J8" s="3">
@@ -1158,13 +1174,13 @@
         <f t="shared" si="7"/>
         <v>4.8275862068965525</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>2.5</v>
       </c>
       <c r="B9" s="3">
@@ -1175,11 +1191,11 @@
         <f t="shared" ref="C9:C30" si="11">+B9*16%</f>
         <v>4.1379310344827589</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <f t="shared" ref="D9:D30" si="12">D8+5</f>
         <v>30</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>2.75</v>
       </c>
       <c r="F9" s="3">
@@ -1190,11 +1206,11 @@
         <f t="shared" si="1"/>
         <v>4.8275862068965525</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>2</v>
       </c>
       <c r="J9" s="3">
@@ -1205,13 +1221,13 @@
         <f t="shared" si="7"/>
         <v>5.5172413793103452</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>2.75</v>
       </c>
       <c r="B10" s="3">
@@ -1222,11 +1238,11 @@
         <f t="shared" si="11"/>
         <v>4.8275862068965525</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <f t="shared" si="12"/>
         <v>35</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>3</v>
       </c>
       <c r="F10" s="3">
@@ -1237,11 +1253,11 @@
         <f t="shared" si="1"/>
         <v>5.5172413793103452</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>2.25</v>
       </c>
       <c r="J10" s="3">
@@ -1252,13 +1268,13 @@
         <f t="shared" si="7"/>
         <v>6.2068965517241388</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>3</v>
       </c>
       <c r="B11" s="3">
@@ -1269,11 +1285,11 @@
         <f t="shared" si="11"/>
         <v>5.5172413793103452</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <f t="shared" si="12"/>
         <v>40</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>3.25</v>
       </c>
       <c r="F11" s="3">
@@ -1284,11 +1300,11 @@
         <f t="shared" si="1"/>
         <v>6.2068965517241388</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <f t="shared" si="9"/>
         <v>45</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>2.5</v>
       </c>
       <c r="J11" s="3">
@@ -1299,13 +1315,13 @@
         <f t="shared" si="7"/>
         <v>6.8965517241379315</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>3.25</v>
       </c>
       <c r="B12" s="3">
@@ -1316,11 +1332,11 @@
         <f t="shared" si="11"/>
         <v>6.2068965517241388</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <f t="shared" si="12"/>
         <v>45</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>3.5</v>
       </c>
       <c r="F12" s="3">
@@ -1331,11 +1347,11 @@
         <f t="shared" si="1"/>
         <v>6.8965517241379315</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>2.75</v>
       </c>
       <c r="J12" s="3">
@@ -1346,13 +1362,13 @@
         <f t="shared" si="7"/>
         <v>7.5862068965517242</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <f t="shared" si="8"/>
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>3.5</v>
       </c>
       <c r="B13" s="3">
@@ -1363,11 +1379,11 @@
         <f t="shared" si="11"/>
         <v>6.8965517241379315</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>3.75</v>
       </c>
       <c r="F13" s="3">
@@ -1378,11 +1394,11 @@
         <f t="shared" si="1"/>
         <v>7.5862068965517242</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <f t="shared" si="9"/>
         <v>55</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>3</v>
       </c>
       <c r="J13" s="3">
@@ -1393,13 +1409,13 @@
         <f t="shared" si="7"/>
         <v>8.2758620689655178</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="9">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>3.75</v>
       </c>
       <c r="B14" s="3">
@@ -1410,11 +1426,11 @@
         <f t="shared" si="11"/>
         <v>7.5862068965517242</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <f t="shared" si="12"/>
         <v>55</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>4</v>
       </c>
       <c r="F14" s="3">
@@ -1425,11 +1441,11 @@
         <f t="shared" si="1"/>
         <v>8.2758620689655178</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <v>3.25</v>
       </c>
       <c r="J14" s="3">
@@ -1440,13 +1456,13 @@
         <f t="shared" si="7"/>
         <v>8.9655172413793114</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <f t="shared" si="8"/>
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>4</v>
       </c>
       <c r="B15" s="3">
@@ -1457,11 +1473,11 @@
         <f t="shared" si="11"/>
         <v>8.2758620689655178</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>4.25</v>
       </c>
       <c r="F15" s="3">
@@ -1472,11 +1488,11 @@
         <f t="shared" si="1"/>
         <v>8.9655172413793114</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <f t="shared" si="9"/>
         <v>65</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>3.5</v>
       </c>
       <c r="J15" s="3">
@@ -1487,13 +1503,13 @@
         <f t="shared" si="7"/>
         <v>9.655172413793105</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <f t="shared" si="8"/>
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>4.25</v>
       </c>
       <c r="B16" s="3">
@@ -1504,11 +1520,11 @@
         <f t="shared" si="11"/>
         <v>8.9655172413793114</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <f t="shared" si="12"/>
         <v>65</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>4.5</v>
       </c>
       <c r="F16" s="3">
@@ -1519,11 +1535,11 @@
         <f t="shared" si="1"/>
         <v>9.655172413793105</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <f t="shared" si="9"/>
         <v>70</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>3.75</v>
       </c>
       <c r="J16" s="3">
@@ -1534,13 +1550,13 @@
         <f t="shared" si="7"/>
         <v>10.344827586206899</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="9">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>4.5</v>
       </c>
       <c r="B17" s="3">
@@ -1551,11 +1567,11 @@
         <f t="shared" si="11"/>
         <v>9.655172413793105</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>4.75</v>
       </c>
       <c r="F17" s="3">
@@ -1566,11 +1582,11 @@
         <f t="shared" si="1"/>
         <v>10.344827586206899</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <f t="shared" si="9"/>
         <v>75</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <v>4</v>
       </c>
       <c r="J17" s="3">
@@ -1581,13 +1597,13 @@
         <f t="shared" si="7"/>
         <v>11.03448275862069</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="9">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>4.75</v>
       </c>
       <c r="B18" s="3">
@@ -1598,11 +1614,11 @@
         <f t="shared" si="11"/>
         <v>10.344827586206899</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <f t="shared" si="12"/>
         <v>75</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>5</v>
       </c>
       <c r="F18" s="3">
@@ -1613,11 +1629,11 @@
         <f t="shared" si="1"/>
         <v>11.03448275862069</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>4.25</v>
       </c>
       <c r="J18" s="3">
@@ -1628,13 +1644,13 @@
         <f t="shared" si="7"/>
         <v>11.724137931034484</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="9">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>5</v>
       </c>
       <c r="B19" s="3">
@@ -1645,11 +1661,11 @@
         <f t="shared" si="11"/>
         <v>11.03448275862069</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>5.25</v>
       </c>
       <c r="F19" s="3">
@@ -1660,11 +1676,11 @@
         <f t="shared" si="1"/>
         <v>11.724137931034484</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <f t="shared" si="9"/>
         <v>85</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="10">
         <v>4.5</v>
       </c>
       <c r="J19" s="3">
@@ -1675,13 +1691,13 @@
         <f t="shared" si="7"/>
         <v>12.413793103448278</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="9">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>5.25</v>
       </c>
       <c r="B20" s="3">
@@ -1692,11 +1708,11 @@
         <f t="shared" si="11"/>
         <v>11.724137931034484</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <f t="shared" si="12"/>
         <v>85</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>5.5</v>
       </c>
       <c r="F20" s="3">
@@ -1707,11 +1723,11 @@
         <f t="shared" si="1"/>
         <v>12.413793103448278</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <v>4.75</v>
       </c>
       <c r="J20" s="3">
@@ -1722,13 +1738,13 @@
         <f t="shared" si="7"/>
         <v>13.103448275862069</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="9">
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>5.5</v>
       </c>
       <c r="B21" s="3">
@@ -1739,11 +1755,11 @@
         <f t="shared" si="11"/>
         <v>12.413793103448278</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <f t="shared" si="12"/>
         <v>90</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>5.75</v>
       </c>
       <c r="F21" s="3">
@@ -1754,11 +1770,11 @@
         <f t="shared" si="1"/>
         <v>13.103448275862069</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
         <v>5</v>
       </c>
       <c r="J21" s="3">
@@ -1769,13 +1785,13 @@
         <f t="shared" si="7"/>
         <v>13.793103448275863</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="9">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>5.75</v>
       </c>
       <c r="B22" s="3">
@@ -1786,11 +1802,11 @@
         <f t="shared" si="11"/>
         <v>13.103448275862069</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <f t="shared" si="12"/>
         <v>95</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>6</v>
       </c>
       <c r="F22" s="3">
@@ -1801,11 +1817,11 @@
         <f t="shared" si="1"/>
         <v>13.793103448275863</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
         <v>5.25</v>
       </c>
       <c r="J22" s="3">
@@ -1816,13 +1832,13 @@
         <f t="shared" si="7"/>
         <v>14.482758620689657</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="9">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>6</v>
       </c>
       <c r="B23" s="3">
@@ -1833,11 +1849,11 @@
         <f t="shared" si="11"/>
         <v>13.793103448275863</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>6.25</v>
       </c>
       <c r="F23" s="3">
@@ -1848,11 +1864,11 @@
         <f t="shared" si="1"/>
         <v>14.482758620689657</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <f t="shared" si="9"/>
         <v>105</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
         <v>5.5</v>
       </c>
       <c r="J23" s="3">
@@ -1863,13 +1879,13 @@
         <f t="shared" si="7"/>
         <v>15.172413793103448</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="9">
         <f t="shared" si="8"/>
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>6.25</v>
       </c>
       <c r="B24" s="3">
@@ -1880,11 +1896,11 @@
         <f t="shared" si="11"/>
         <v>14.482758620689657</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <f t="shared" si="12"/>
         <v>105</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>6.5</v>
       </c>
       <c r="F24" s="3">
@@ -1895,11 +1911,11 @@
         <f t="shared" si="1"/>
         <v>15.172413793103448</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <f t="shared" si="9"/>
         <v>110</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>5.75</v>
       </c>
       <c r="J24" s="3">
@@ -1910,13 +1926,13 @@
         <f t="shared" si="7"/>
         <v>15.862068965517242</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="9">
         <f t="shared" si="8"/>
         <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>6.5</v>
       </c>
       <c r="B25" s="3">
@@ -1927,11 +1943,11 @@
         <f t="shared" si="11"/>
         <v>15.172413793103448</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <f t="shared" si="12"/>
         <v>110</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>6.75</v>
       </c>
       <c r="F25" s="3">
@@ -1942,11 +1958,11 @@
         <f t="shared" si="1"/>
         <v>15.862068965517242</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <f t="shared" si="9"/>
         <v>115</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <v>6</v>
       </c>
       <c r="J25" s="3">
@@ -1957,13 +1973,13 @@
         <f t="shared" si="7"/>
         <v>16.551724137931036</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="9">
         <f t="shared" si="8"/>
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>6.75</v>
       </c>
       <c r="B26" s="3">
@@ -1974,11 +1990,11 @@
         <f t="shared" si="11"/>
         <v>15.862068965517242</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <f t="shared" si="12"/>
         <v>115</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>7</v>
       </c>
       <c r="F26" s="3">
@@ -1989,11 +2005,11 @@
         <f t="shared" si="1"/>
         <v>16.551724137931036</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f t="shared" si="9"/>
         <v>120</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="10">
         <v>6.25</v>
       </c>
       <c r="J26" s="3">
@@ -2004,13 +2020,13 @@
         <f t="shared" si="7"/>
         <v>17.241379310344829</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="9">
         <f t="shared" si="8"/>
         <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>7</v>
       </c>
       <c r="B27" s="3">
@@ -2021,11 +2037,11 @@
         <f t="shared" si="11"/>
         <v>16.551724137931036</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <f t="shared" si="12"/>
         <v>120</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>7.25</v>
       </c>
       <c r="F27" s="3">
@@ -2036,11 +2052,11 @@
         <f t="shared" si="1"/>
         <v>17.241379310344829</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f t="shared" si="9"/>
         <v>125</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
         <v>6.5</v>
       </c>
       <c r="J27" s="3">
@@ -2051,13 +2067,13 @@
         <f t="shared" si="7"/>
         <v>17.931034482758623</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="9">
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>7.25</v>
       </c>
       <c r="B28" s="3">
@@ -2068,11 +2084,11 @@
         <f t="shared" si="11"/>
         <v>17.241379310344829</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <f t="shared" si="12"/>
         <v>125</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>7.5</v>
       </c>
       <c r="F28" s="3">
@@ -2083,11 +2099,11 @@
         <f t="shared" si="1"/>
         <v>17.931034482758623</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f t="shared" si="9"/>
         <v>130</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="10">
         <v>6.75</v>
       </c>
       <c r="J28" s="3">
@@ -2098,13 +2114,13 @@
         <f t="shared" si="7"/>
         <v>18.620689655172413</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="9">
         <f t="shared" si="8"/>
         <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>7.5</v>
       </c>
       <c r="B29" s="3">
@@ -2115,11 +2131,11 @@
         <f t="shared" si="11"/>
         <v>17.931034482758623</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <f t="shared" si="12"/>
         <v>130</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>7.75</v>
       </c>
       <c r="F29" s="3">
@@ -2130,11 +2146,11 @@
         <f t="shared" si="1"/>
         <v>18.620689655172413</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f t="shared" si="9"/>
         <v>135</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="10">
         <v>7</v>
       </c>
       <c r="J29" s="3">
@@ -2145,13 +2161,13 @@
         <f t="shared" si="7"/>
         <v>19.31034482758621</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="9">
         <f t="shared" si="8"/>
         <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>7.75</v>
       </c>
       <c r="B30" s="3">
@@ -2162,11 +2178,11 @@
         <f t="shared" si="11"/>
         <v>18.620689655172413</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <f t="shared" si="12"/>
         <v>135</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>8</v>
       </c>
       <c r="F30" s="3">
@@ -2177,11 +2193,11 @@
         <f t="shared" si="1"/>
         <v>19.31034482758621</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="10">
         <v>7.25</v>
       </c>
       <c r="J30" s="3">
@@ -2192,13 +2208,13 @@
         <f t="shared" si="7"/>
         <v>20.000000000000004</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="9">
         <f t="shared" si="8"/>
         <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>8</v>
       </c>
       <c r="B31" s="3">
@@ -2209,11 +2225,11 @@
         <f t="shared" ref="C31" si="14">+B31*16%</f>
         <v>19.31034482758621</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <f t="shared" ref="D31" si="15">D30+5</f>
         <v>140</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>8.25</v>
       </c>
       <c r="F31" s="3">
@@ -2224,11 +2240,11 @@
         <f t="shared" si="1"/>
         <v>20.000000000000004</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f t="shared" si="9"/>
         <v>145</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="10">
         <v>7.5</v>
       </c>
       <c r="J31" s="3">
@@ -2239,13 +2255,13 @@
         <f t="shared" si="7"/>
         <v>20.689655172413797</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="9">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>8.25</v>
       </c>
       <c r="B32" s="3">
@@ -2256,11 +2272,11 @@
         <f t="shared" ref="C32:C39" si="17">+B32*16%</f>
         <v>20.000000000000004</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <f t="shared" ref="D32:D39" si="18">D31+5</f>
         <v>145</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>8.5</v>
       </c>
       <c r="F32" s="3">
@@ -2271,11 +2287,11 @@
         <f t="shared" si="1"/>
         <v>20.689655172413797</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <f t="shared" si="9"/>
         <v>150</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="10">
         <v>7.75</v>
       </c>
       <c r="J32" s="3">
@@ -2286,13 +2302,13 @@
         <f t="shared" si="7"/>
         <v>21.379310344827587</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="9">
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>8.5</v>
       </c>
       <c r="B33" s="3">
@@ -2303,11 +2319,11 @@
         <f t="shared" si="17"/>
         <v>20.689655172413797</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <f t="shared" si="18"/>
         <v>150</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>8.75</v>
       </c>
       <c r="F33" s="3">
@@ -2318,11 +2334,11 @@
         <f t="shared" si="1"/>
         <v>21.379310344827587</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="9">
         <f t="shared" si="9"/>
         <v>155</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="10">
         <v>8</v>
       </c>
       <c r="J33" s="3">
@@ -2333,13 +2349,13 @@
         <f t="shared" si="7"/>
         <v>22.068965517241381</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="9">
         <f t="shared" si="8"/>
         <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>8.75</v>
       </c>
       <c r="B34" s="3">
@@ -2350,11 +2366,11 @@
         <f t="shared" si="17"/>
         <v>21.379310344827587</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <f t="shared" si="18"/>
         <v>155</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>9</v>
       </c>
       <c r="F34" s="3">
@@ -2365,11 +2381,11 @@
         <f t="shared" si="1"/>
         <v>22.068965517241381</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <f t="shared" si="9"/>
         <v>160</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="10">
         <v>8.25</v>
       </c>
       <c r="J34" s="3">
@@ -2380,13 +2396,13 @@
         <f t="shared" si="7"/>
         <v>22.758620689655171</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="9">
         <f t="shared" si="8"/>
         <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>9</v>
       </c>
       <c r="B35" s="3">
@@ -2397,11 +2413,11 @@
         <f t="shared" si="17"/>
         <v>22.068965517241381</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <f t="shared" si="18"/>
         <v>160</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="10">
         <v>9.25</v>
       </c>
       <c r="F35" s="3">
@@ -2412,11 +2428,11 @@
         <f t="shared" si="1"/>
         <v>22.758620689655171</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <f t="shared" si="9"/>
         <v>165</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="10">
         <v>8.5</v>
       </c>
       <c r="J35" s="3">
@@ -2427,13 +2443,13 @@
         <f t="shared" si="7"/>
         <v>23.448275862068968</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="9">
         <f t="shared" si="8"/>
         <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="A36" s="10">
         <v>9.25</v>
       </c>
       <c r="B36" s="3">
@@ -2444,11 +2460,11 @@
         <f t="shared" si="17"/>
         <v>22.758620689655171</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <f t="shared" si="18"/>
         <v>165</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="10">
         <v>9.5</v>
       </c>
       <c r="F36" s="3">
@@ -2459,11 +2475,11 @@
         <f t="shared" si="1"/>
         <v>23.448275862068968</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <f t="shared" si="9"/>
         <v>170</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="10">
         <v>8.75</v>
       </c>
       <c r="J36" s="3">
@@ -2474,13 +2490,13 @@
         <f t="shared" si="7"/>
         <v>24.137931034482758</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="9">
         <f t="shared" si="8"/>
         <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+      <c r="A37" s="10">
         <v>9.5</v>
       </c>
       <c r="B37" s="3">
@@ -2491,11 +2507,11 @@
         <f t="shared" si="17"/>
         <v>23.448275862068968</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <f t="shared" si="18"/>
         <v>170</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="10">
         <v>9.75</v>
       </c>
       <c r="F37" s="3">
@@ -2506,11 +2522,11 @@
         <f t="shared" si="1"/>
         <v>24.137931034482758</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="9">
         <f t="shared" si="9"/>
         <v>175</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="10">
         <v>9</v>
       </c>
       <c r="J37" s="3">
@@ -2521,13 +2537,13 @@
         <f t="shared" si="7"/>
         <v>24.827586206896555</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="9">
         <f t="shared" si="8"/>
         <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="A38" s="10">
         <v>9.75</v>
       </c>
       <c r="B38" s="3">
@@ -2538,11 +2554,11 @@
         <f t="shared" si="17"/>
         <v>24.137931034482758</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="9">
         <f t="shared" si="18"/>
         <v>175</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="10">
         <v>10</v>
       </c>
       <c r="F38" s="3">
@@ -2553,11 +2569,11 @@
         <f t="shared" si="1"/>
         <v>24.827586206896555</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <f t="shared" si="9"/>
         <v>180</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="10">
         <v>9.25</v>
       </c>
       <c r="J38" s="3">
@@ -2568,13 +2584,13 @@
         <f t="shared" si="7"/>
         <v>25.517241379310349</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L38" s="9">
         <f t="shared" si="8"/>
         <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="10">
         <v>10</v>
       </c>
       <c r="B39" s="3">
@@ -2585,11 +2601,11 @@
         <f t="shared" si="17"/>
         <v>24.827586206896555</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="9">
         <f t="shared" si="18"/>
         <v>180</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="10">
         <v>10.25</v>
       </c>
       <c r="F39" s="3">
@@ -2600,11 +2616,11 @@
         <f t="shared" si="1"/>
         <v>25.517241379310349</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="9">
         <f t="shared" si="9"/>
         <v>185</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="10">
         <v>9.5</v>
       </c>
       <c r="J39" s="3">
@@ -2615,13 +2631,13 @@
         <f t="shared" si="7"/>
         <v>26.206896551724139</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L39" s="9">
         <f t="shared" si="8"/>
         <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
+      <c r="A40" s="10">
         <v>10.25</v>
       </c>
       <c r="B40" s="3">
@@ -2632,11 +2648,11 @@
         <f t="shared" ref="C40:C43" si="20">+B40*16%</f>
         <v>25.517241379310349</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <f t="shared" ref="D40:D43" si="21">D39+5</f>
         <v>185</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="10">
         <v>10.5</v>
       </c>
       <c r="F40" s="3">
@@ -2647,11 +2663,11 @@
         <f t="shared" si="1"/>
         <v>26.206896551724139</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <f t="shared" si="9"/>
         <v>190</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="10">
         <v>9.75</v>
       </c>
       <c r="J40" s="3">
@@ -2662,13 +2678,13 @@
         <f t="shared" si="7"/>
         <v>26.896551724137936</v>
       </c>
-      <c r="L40" s="10">
+      <c r="L40" s="9">
         <f t="shared" si="8"/>
         <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+      <c r="A41" s="10">
         <v>10.5</v>
       </c>
       <c r="B41" s="3">
@@ -2679,11 +2695,11 @@
         <f t="shared" si="20"/>
         <v>26.206896551724139</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <f t="shared" si="21"/>
         <v>190</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="10">
         <v>10.75</v>
       </c>
       <c r="F41" s="3">
@@ -2694,11 +2710,11 @@
         <f t="shared" si="1"/>
         <v>26.896551724137936</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="9">
         <f t="shared" si="9"/>
         <v>195</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="10">
         <v>10</v>
       </c>
       <c r="J41" s="3">
@@ -2709,13 +2725,13 @@
         <f t="shared" si="7"/>
         <v>27.586206896551726</v>
       </c>
-      <c r="L41" s="10">
+      <c r="L41" s="9">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="A42" s="10">
         <v>10.75</v>
       </c>
       <c r="B42" s="3">
@@ -2726,11 +2742,11 @@
         <f t="shared" si="20"/>
         <v>26.896551724137936</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <f t="shared" si="21"/>
         <v>195</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="10">
         <v>11</v>
       </c>
       <c r="F42" s="3">
@@ -2741,54 +2757,52 @@
         <f t="shared" si="1"/>
         <v>27.586206896551726</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <f t="shared" si="9"/>
         <v>200</v>
       </c>
-      <c r="I42" s="21"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="22"/>
+      <c r="I42" s="19"/>
+      <c r="L42" s="20"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13">
+      <c r="A43" s="11">
         <v>11</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="12">
         <f t="shared" si="19"/>
         <v>172.41379310344828</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="12">
         <f t="shared" si="20"/>
         <v>27.586206896551726</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="13">
         <f t="shared" si="21"/>
         <v>200</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="25"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="27">
+      <c r="B45" s="25">
         <f t="shared" ref="B45" si="22">+D45/1.16</f>
         <v>172.41379310344828</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="25">
         <f t="shared" ref="C45" si="23">+B45*16%</f>
         <v>27.586206896551726</v>
       </c>
-      <c r="D45" s="28">
+      <c r="D45" s="26">
         <f>D43</f>
         <v>200</v>
       </c>
@@ -2807,11 +2821,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2824,1609 +2838,1610 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="34"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="37"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="29" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="35" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="37"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8">
+      <c r="I5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
-        <f t="shared" ref="F5:F36" si="0">+H5/1.16</f>
+      <c r="J5" s="3">
+        <f>+L5/1.16</f>
+        <v>20.689655172413794</v>
+      </c>
+      <c r="K5" s="3">
+        <f>+J5*16%</f>
+        <v>3.3103448275862069</v>
+      </c>
+      <c r="L5" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" ref="B6:B37" si="0">+D6/1.16</f>
         <v>10.344827586206897</v>
       </c>
-      <c r="G5" s="3">
-        <f t="shared" ref="G5:G36" si="1">+F5*16%</f>
+      <c r="C6" s="3">
+        <f t="shared" ref="C6:C37" si="1">+B6*16%</f>
         <v>1.6551724137931034</v>
       </c>
-      <c r="H5" s="10">
+      <c r="D6" s="9">
         <v>12</v>
       </c>
-      <c r="I5" s="8">
+      <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="J5" s="3">
-        <f t="shared" ref="J5:J35" si="2">+L5/1.16</f>
+      <c r="F6" s="3">
+        <f t="shared" ref="F6:F37" si="2">+H6/1.16</f>
+        <v>10.344827586206897</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" ref="G6:G37" si="3">+F6*16%</f>
+        <v>1.6551724137931034</v>
+      </c>
+      <c r="H6" s="9">
+        <v>12</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="J6" s="3">
+        <f>+L6/1.16</f>
+        <v>25.862068965517242</v>
+      </c>
+      <c r="K6" s="3">
+        <f>+J6*16%</f>
+        <v>4.1379310344827589</v>
+      </c>
+      <c r="L6" s="9">
+        <f>L5+6</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
         <v>20.689655172413794</v>
       </c>
-      <c r="K5" s="3">
-        <f t="shared" ref="K5:K35" si="3">+J5*16%</f>
+      <c r="C7" s="3">
+        <f t="shared" si="1"/>
         <v>3.3103448275862069</v>
       </c>
-      <c r="L5" s="10">
+      <c r="D7" s="9">
+        <f>D6+12</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <f t="shared" ref="B6:B37" si="4">+D6/1.16</f>
-        <v>10.344827586206897</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" ref="C6:C37" si="5">+B6*16%</f>
-        <v>1.6551724137931034</v>
-      </c>
-      <c r="D6" s="10">
-        <v>12</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="E7" s="7">
         <v>2</v>
       </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
+      <c r="F7" s="3">
+        <f t="shared" si="2"/>
         <v>20.689655172413794</v>
       </c>
-      <c r="G6" s="3">
-        <f t="shared" si="1"/>
+      <c r="G7" s="3">
+        <f t="shared" si="3"/>
         <v>3.3103448275862069</v>
       </c>
-      <c r="H6" s="10">
-        <f>H5+12</f>
+      <c r="H7" s="9">
+        <f>H6+12</f>
         <v>24</v>
       </c>
-      <c r="I6" s="11">
-        <v>1.25</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="I7" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="J7" s="3">
+        <f>+L7/1.16</f>
+        <v>31.03448275862069</v>
+      </c>
+      <c r="K7" s="3">
+        <f>+J7*16%</f>
+        <v>4.9655172413793105</v>
+      </c>
+      <c r="L7" s="9">
+        <f>L6+6</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>2.25</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>25.862068965517242</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="1"/>
+        <v>4.1379310344827589</v>
+      </c>
+      <c r="D8" s="9">
+        <f>D7+6</f>
+        <v>30</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2.25</v>
+      </c>
+      <c r="F8" s="3">
         <f t="shared" si="2"/>
         <v>25.862068965517242</v>
       </c>
-      <c r="K6" s="3">
+      <c r="G8" s="3">
         <f t="shared" si="3"/>
         <v>4.1379310344827589</v>
       </c>
-      <c r="L6" s="10">
-        <f>L5+6</f>
+      <c r="H8" s="9">
+        <f>H7+6</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3">
-        <f t="shared" si="4"/>
-        <v>20.689655172413794</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="5"/>
-        <v>3.3103448275862069</v>
-      </c>
-      <c r="D7" s="10">
-        <f>D6+12</f>
-        <v>24</v>
-      </c>
-      <c r="E7" s="11">
-        <v>2.25</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>25.862068965517242</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="1"/>
-        <v>4.1379310344827589</v>
-      </c>
-      <c r="H7" s="10">
-        <f>H6+6</f>
-        <v>30</v>
-      </c>
-      <c r="I7" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="I8" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="J8" s="3">
+        <f>+L8/1.16</f>
+        <v>36.206896551724142</v>
+      </c>
+      <c r="K8" s="3">
+        <f>+J8*16%</f>
+        <v>5.793103448275863</v>
+      </c>
+      <c r="L8" s="9">
+        <f>L7+6</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>31.03448275862069</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="1"/>
+        <v>4.9655172413793105</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" ref="D9:D36" si="4">D8+6</f>
+        <v>36</v>
+      </c>
+      <c r="E9" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="F9" s="3">
         <f t="shared" si="2"/>
         <v>31.03448275862069</v>
       </c>
-      <c r="K7" s="3">
+      <c r="G9" s="3">
         <f t="shared" si="3"/>
         <v>4.9655172413793105</v>
       </c>
-      <c r="L7" s="10">
-        <f t="shared" ref="L7:L34" si="6">L6+6</f>
+      <c r="H9" s="9">
+        <f t="shared" ref="H9:H36" si="5">H8+6</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>2.25</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="I9" s="10">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
+        <f>+L9/1.16</f>
+        <v>41.379310344827587</v>
+      </c>
+      <c r="K9" s="3">
+        <f>+J9*16%</f>
+        <v>6.6206896551724137</v>
+      </c>
+      <c r="L9" s="9">
+        <f>L8+6</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>36.206896551724142</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="1"/>
+        <v>5.793103448275863</v>
+      </c>
+      <c r="D10" s="9">
         <f t="shared" si="4"/>
-        <v>25.862068965517242</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="5"/>
-        <v>4.1379310344827589</v>
-      </c>
-      <c r="D8" s="10">
-        <f>D7+6</f>
-        <v>30</v>
-      </c>
-      <c r="E8" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>31.03448275862069</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="1"/>
-        <v>4.9655172413793105</v>
-      </c>
-      <c r="H8" s="10">
-        <f t="shared" ref="H8:H35" si="7">H7+6</f>
-        <v>36</v>
-      </c>
-      <c r="I8" s="11">
-        <v>1.75</v>
-      </c>
-      <c r="J8" s="3">
+        <v>42</v>
+      </c>
+      <c r="E10" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="F10" s="3">
         <f t="shared" si="2"/>
         <v>36.206896551724142</v>
       </c>
-      <c r="K8" s="3">
+      <c r="G10" s="3">
         <f t="shared" si="3"/>
         <v>5.793103448275863</v>
       </c>
-      <c r="L8" s="10">
-        <f t="shared" si="6"/>
+      <c r="H10" s="9">
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="I10" s="10">
+        <v>2.25</v>
+      </c>
+      <c r="J10" s="3">
+        <f>+L10/1.16</f>
+        <v>46.551724137931039</v>
+      </c>
+      <c r="K10" s="3">
+        <f>+J10*16%</f>
+        <v>7.4482758620689662</v>
+      </c>
+      <c r="L10" s="9">
+        <f>L9+6</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>41.379310344827587</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6206896551724137</v>
+      </c>
+      <c r="D11" s="9">
         <f t="shared" si="4"/>
-        <v>31.03448275862069</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="5"/>
-        <v>4.9655172413793105</v>
-      </c>
-      <c r="D9" s="10">
-        <f t="shared" ref="D9:D36" si="8">D8+6</f>
-        <v>36</v>
-      </c>
-      <c r="E9" s="11">
-        <v>2.75</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>36.206896551724142</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="1"/>
-        <v>5.793103448275863</v>
-      </c>
-      <c r="H9" s="10">
-        <f t="shared" si="7"/>
-        <v>42</v>
-      </c>
-      <c r="I9" s="11">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3">
+        <v>48</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
         <f t="shared" si="2"/>
         <v>41.379310344827587</v>
       </c>
-      <c r="K9" s="3">
+      <c r="G11" s="3">
         <f t="shared" si="3"/>
         <v>6.6206896551724137</v>
       </c>
-      <c r="L9" s="10">
-        <f t="shared" si="6"/>
+      <c r="H11" s="9">
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>2.75</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="I11" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="J11" s="3">
+        <f>+L11/1.16</f>
+        <v>51.724137931034484</v>
+      </c>
+      <c r="K11" s="3">
+        <f>+J11*16%</f>
+        <v>8.2758620689655178</v>
+      </c>
+      <c r="L11" s="9">
+        <f>L10+6</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>3.25</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>46.551724137931039</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="1"/>
+        <v>7.4482758620689662</v>
+      </c>
+      <c r="D12" s="9">
         <f t="shared" si="4"/>
-        <v>36.206896551724142</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="5"/>
-        <v>5.793103448275863</v>
-      </c>
-      <c r="D10" s="10">
-        <f t="shared" si="8"/>
-        <v>42</v>
-      </c>
-      <c r="E10" s="11">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>41.379310344827587</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="1"/>
-        <v>6.6206896551724137</v>
-      </c>
-      <c r="H10" s="10">
-        <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-      <c r="I10" s="11">
-        <v>2.25</v>
-      </c>
-      <c r="J10" s="3">
+        <v>54</v>
+      </c>
+      <c r="E12" s="10">
+        <v>3.25</v>
+      </c>
+      <c r="F12" s="3">
         <f t="shared" si="2"/>
         <v>46.551724137931039</v>
       </c>
-      <c r="K10" s="3">
+      <c r="G12" s="3">
         <f t="shared" si="3"/>
         <v>7.4482758620689662</v>
       </c>
-      <c r="L10" s="10">
-        <f t="shared" si="6"/>
+      <c r="H12" s="9">
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="I12" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="J12" s="3">
+        <f>+L12/1.16</f>
+        <v>56.896551724137936</v>
+      </c>
+      <c r="K12" s="3">
+        <f>+J12*16%</f>
+        <v>9.1034482758620694</v>
+      </c>
+      <c r="L12" s="9">
+        <f>L11+6</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>51.724137931034484</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="1"/>
+        <v>8.2758620689655178</v>
+      </c>
+      <c r="D13" s="9">
         <f t="shared" si="4"/>
-        <v>41.379310344827587</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" si="5"/>
-        <v>6.6206896551724137</v>
-      </c>
-      <c r="D11" s="10">
-        <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="E11" s="11">
-        <v>3.25</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>46.551724137931039</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="1"/>
-        <v>7.4482758620689662</v>
-      </c>
-      <c r="H11" s="10">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="I11" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="J11" s="3">
+        <v>60</v>
+      </c>
+      <c r="E13" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="F13" s="3">
         <f t="shared" si="2"/>
         <v>51.724137931034484</v>
       </c>
-      <c r="K11" s="3">
+      <c r="G13" s="3">
         <f t="shared" si="3"/>
         <v>8.2758620689655178</v>
       </c>
-      <c r="L11" s="10">
-        <f t="shared" si="6"/>
+      <c r="H13" s="9">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>3.25</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="I13" s="10">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3">
+        <f>+L13/1.16</f>
+        <v>62.068965517241381</v>
+      </c>
+      <c r="K13" s="3">
+        <f>+J13*16%</f>
+        <v>9.931034482758621</v>
+      </c>
+      <c r="L13" s="9">
+        <f>L12+6</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>3.75</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>56.896551724137936</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="1"/>
+        <v>9.1034482758620694</v>
+      </c>
+      <c r="D14" s="9">
         <f t="shared" si="4"/>
-        <v>46.551724137931039</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="5"/>
-        <v>7.4482758620689662</v>
-      </c>
-      <c r="D12" s="10">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-      <c r="E12" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>51.724137931034484</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="1"/>
-        <v>8.2758620689655178</v>
-      </c>
-      <c r="H12" s="10">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="I12" s="11">
-        <v>2.75</v>
-      </c>
-      <c r="J12" s="3">
+        <v>66</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3.75</v>
+      </c>
+      <c r="F14" s="3">
         <f t="shared" si="2"/>
         <v>56.896551724137936</v>
       </c>
-      <c r="K12" s="3">
+      <c r="G14" s="3">
         <f t="shared" si="3"/>
         <v>9.1034482758620694</v>
       </c>
-      <c r="L12" s="10">
-        <f t="shared" si="6"/>
+      <c r="H14" s="9">
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="I14" s="10">
+        <v>3.25</v>
+      </c>
+      <c r="J14" s="3">
+        <f>+L14/1.16</f>
+        <v>67.241379310344826</v>
+      </c>
+      <c r="K14" s="3">
+        <f>+J14*16%</f>
+        <v>10.758620689655173</v>
+      </c>
+      <c r="L14" s="9">
+        <f>L13+6</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>62.068965517241381</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="1"/>
+        <v>9.931034482758621</v>
+      </c>
+      <c r="D15" s="9">
         <f t="shared" si="4"/>
-        <v>51.724137931034484</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" si="5"/>
-        <v>8.2758620689655178</v>
-      </c>
-      <c r="D13" s="10">
-        <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="E13" s="11">
-        <v>3.75</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>56.896551724137936</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="1"/>
-        <v>9.1034482758620694</v>
-      </c>
-      <c r="H13" s="10">
-        <f t="shared" si="7"/>
-        <v>66</v>
-      </c>
-      <c r="I13" s="11">
-        <v>3</v>
-      </c>
-      <c r="J13" s="3">
+        <v>72</v>
+      </c>
+      <c r="E15" s="10">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
         <f t="shared" si="2"/>
         <v>62.068965517241381</v>
       </c>
-      <c r="K13" s="3">
+      <c r="G15" s="3">
         <f t="shared" si="3"/>
         <v>9.931034482758621</v>
       </c>
-      <c r="L13" s="10">
-        <f t="shared" si="6"/>
+      <c r="H15" s="9">
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>3.75</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="I15" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="J15" s="3">
+        <f>+L15/1.16</f>
+        <v>72.413793103448285</v>
+      </c>
+      <c r="K15" s="3">
+        <f>+J15*16%</f>
+        <v>11.586206896551726</v>
+      </c>
+      <c r="L15" s="9">
+        <f>L14+6</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>4.25</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>67.241379310344826</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="1"/>
+        <v>10.758620689655173</v>
+      </c>
+      <c r="D16" s="9">
         <f t="shared" si="4"/>
-        <v>56.896551724137936</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="5"/>
-        <v>9.1034482758620694</v>
-      </c>
-      <c r="D14" s="10">
-        <f t="shared" si="8"/>
-        <v>66</v>
-      </c>
-      <c r="E14" s="11">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>62.068965517241381</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="1"/>
-        <v>9.931034482758621</v>
-      </c>
-      <c r="H14" s="10">
-        <f t="shared" si="7"/>
-        <v>72</v>
-      </c>
-      <c r="I14" s="11">
-        <v>3.25</v>
-      </c>
-      <c r="J14" s="3">
+        <v>78</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4.25</v>
+      </c>
+      <c r="F16" s="3">
         <f t="shared" si="2"/>
         <v>67.241379310344826</v>
       </c>
-      <c r="K14" s="3">
+      <c r="G16" s="3">
         <f t="shared" si="3"/>
         <v>10.758620689655173</v>
       </c>
-      <c r="L14" s="10">
-        <f t="shared" si="6"/>
+      <c r="H16" s="9">
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="I16" s="10">
+        <v>3.75</v>
+      </c>
+      <c r="J16" s="3">
+        <f>+L16/1.16</f>
+        <v>77.58620689655173</v>
+      </c>
+      <c r="K16" s="3">
+        <f>+J16*16%</f>
+        <v>12.413793103448278</v>
+      </c>
+      <c r="L16" s="9">
+        <f>L15+6</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>72.413793103448285</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="1"/>
+        <v>11.586206896551726</v>
+      </c>
+      <c r="D17" s="9">
         <f t="shared" si="4"/>
-        <v>62.068965517241381</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" si="5"/>
-        <v>9.931034482758621</v>
-      </c>
-      <c r="D15" s="10">
-        <f t="shared" si="8"/>
-        <v>72</v>
-      </c>
-      <c r="E15" s="11">
-        <v>4.25</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>67.241379310344826</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="1"/>
-        <v>10.758620689655173</v>
-      </c>
-      <c r="H15" s="10">
-        <f t="shared" si="7"/>
-        <v>78</v>
-      </c>
-      <c r="I15" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="J15" s="3">
+        <v>84</v>
+      </c>
+      <c r="E17" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="F17" s="3">
         <f t="shared" si="2"/>
         <v>72.413793103448285</v>
       </c>
-      <c r="K15" s="3">
+      <c r="G17" s="3">
         <f t="shared" si="3"/>
         <v>11.586206896551726</v>
       </c>
-      <c r="L15" s="10">
-        <f t="shared" si="6"/>
+      <c r="H17" s="9">
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>4.25</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="I17" s="10">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <f>+L17/1.16</f>
+        <v>82.758620689655174</v>
+      </c>
+      <c r="K17" s="3">
+        <f>+J17*16%</f>
+        <v>13.241379310344827</v>
+      </c>
+      <c r="L17" s="9">
+        <f>L16+6</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>4.75</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>77.58620689655173</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="1"/>
+        <v>12.413793103448278</v>
+      </c>
+      <c r="D18" s="9">
         <f t="shared" si="4"/>
-        <v>67.241379310344826</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" si="5"/>
-        <v>10.758620689655173</v>
-      </c>
-      <c r="D16" s="10">
-        <f t="shared" si="8"/>
-        <v>78</v>
-      </c>
-      <c r="E16" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>72.413793103448285</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="1"/>
-        <v>11.586206896551726</v>
-      </c>
-      <c r="H16" s="10">
-        <f t="shared" si="7"/>
-        <v>84</v>
-      </c>
-      <c r="I16" s="11">
-        <v>3.75</v>
-      </c>
-      <c r="J16" s="3">
+        <v>90</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4.75</v>
+      </c>
+      <c r="F18" s="3">
         <f t="shared" si="2"/>
         <v>77.58620689655173</v>
       </c>
-      <c r="K16" s="3">
+      <c r="G18" s="3">
         <f t="shared" si="3"/>
         <v>12.413793103448278</v>
       </c>
-      <c r="L16" s="10">
-        <f t="shared" si="6"/>
+      <c r="H18" s="9">
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="I18" s="10">
+        <v>4.25</v>
+      </c>
+      <c r="J18" s="3">
+        <f>+L18/1.16</f>
+        <v>87.931034482758633</v>
+      </c>
+      <c r="K18" s="3">
+        <f>+J18*16%</f>
+        <v>14.068965517241381</v>
+      </c>
+      <c r="L18" s="9">
+        <f>L17+6</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>82.758620689655174</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="1"/>
+        <v>13.241379310344827</v>
+      </c>
+      <c r="D19" s="9">
         <f t="shared" si="4"/>
-        <v>72.413793103448285</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" si="5"/>
-        <v>11.586206896551726</v>
-      </c>
-      <c r="D17" s="10">
-        <f t="shared" si="8"/>
-        <v>84</v>
-      </c>
-      <c r="E17" s="11">
-        <v>4.75</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>77.58620689655173</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="1"/>
-        <v>12.413793103448278</v>
-      </c>
-      <c r="H17" s="10">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="I17" s="11">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3">
+        <v>96</v>
+      </c>
+      <c r="E19" s="10">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
         <f t="shared" si="2"/>
         <v>82.758620689655174</v>
       </c>
-      <c r="K17" s="3">
+      <c r="G19" s="3">
         <f t="shared" si="3"/>
         <v>13.241379310344827</v>
       </c>
-      <c r="L17" s="10">
-        <f t="shared" si="6"/>
+      <c r="H19" s="9">
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>4.75</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="I19" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="J19" s="3">
+        <f>+L19/1.16</f>
+        <v>93.103448275862078</v>
+      </c>
+      <c r="K19" s="3">
+        <f>+J19*16%</f>
+        <v>14.896551724137932</v>
+      </c>
+      <c r="L19" s="9">
+        <f>L18+6</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>5.25</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>87.931034482758633</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="1"/>
+        <v>14.068965517241381</v>
+      </c>
+      <c r="D20" s="9">
         <f t="shared" si="4"/>
-        <v>77.58620689655173</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" si="5"/>
-        <v>12.413793103448278</v>
-      </c>
-      <c r="D18" s="10">
-        <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="E18" s="11">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>82.758620689655174</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="1"/>
-        <v>13.241379310344827</v>
-      </c>
-      <c r="H18" s="10">
-        <f t="shared" si="7"/>
-        <v>96</v>
-      </c>
-      <c r="I18" s="11">
-        <v>4.25</v>
-      </c>
-      <c r="J18" s="3">
+        <v>102</v>
+      </c>
+      <c r="E20" s="10">
+        <v>5.25</v>
+      </c>
+      <c r="F20" s="3">
         <f t="shared" si="2"/>
         <v>87.931034482758633</v>
       </c>
-      <c r="K18" s="3">
+      <c r="G20" s="3">
         <f t="shared" si="3"/>
         <v>14.068965517241381</v>
       </c>
-      <c r="L18" s="10">
-        <f t="shared" si="6"/>
+      <c r="H20" s="9">
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="I20" s="10">
+        <v>4.75</v>
+      </c>
+      <c r="J20" s="3">
+        <f>+L20/1.16</f>
+        <v>98.275862068965523</v>
+      </c>
+      <c r="K20" s="3">
+        <f>+J20*16%</f>
+        <v>15.724137931034484</v>
+      </c>
+      <c r="L20" s="9">
+        <f>L19+6</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>93.103448275862078</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="1"/>
+        <v>14.896551724137932</v>
+      </c>
+      <c r="D21" s="9">
         <f t="shared" si="4"/>
-        <v>82.758620689655174</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" si="5"/>
-        <v>13.241379310344827</v>
-      </c>
-      <c r="D19" s="10">
-        <f t="shared" si="8"/>
-        <v>96</v>
-      </c>
-      <c r="E19" s="11">
-        <v>5.25</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>87.931034482758633</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="1"/>
-        <v>14.068965517241381</v>
-      </c>
-      <c r="H19" s="10">
-        <f t="shared" si="7"/>
-        <v>102</v>
-      </c>
-      <c r="I19" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="J19" s="3">
+        <v>108</v>
+      </c>
+      <c r="E21" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="F21" s="3">
         <f t="shared" si="2"/>
         <v>93.103448275862078</v>
       </c>
-      <c r="K19" s="3">
+      <c r="G21" s="3">
         <f t="shared" si="3"/>
         <v>14.896551724137932</v>
       </c>
-      <c r="L19" s="10">
-        <f t="shared" si="6"/>
+      <c r="H21" s="9">
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>5.25</v>
-      </c>
-      <c r="B20" s="3">
+      <c r="I21" s="10">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <f>+L21/1.16</f>
+        <v>103.44827586206897</v>
+      </c>
+      <c r="K21" s="3">
+        <f>+J21*16%</f>
+        <v>16.551724137931036</v>
+      </c>
+      <c r="L21" s="9">
+        <f>L20+6</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>5.75</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>98.275862068965523</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="1"/>
+        <v>15.724137931034484</v>
+      </c>
+      <c r="D22" s="9">
         <f t="shared" si="4"/>
-        <v>87.931034482758633</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" si="5"/>
-        <v>14.068965517241381</v>
-      </c>
-      <c r="D20" s="10">
-        <f t="shared" si="8"/>
-        <v>102</v>
-      </c>
-      <c r="E20" s="11">
-        <v>5.5</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="0"/>
-        <v>93.103448275862078</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="1"/>
-        <v>14.896551724137932</v>
-      </c>
-      <c r="H20" s="10">
-        <f t="shared" si="7"/>
-        <v>108</v>
-      </c>
-      <c r="I20" s="11">
-        <v>4.75</v>
-      </c>
-      <c r="J20" s="3">
+        <v>114</v>
+      </c>
+      <c r="E22" s="10">
+        <v>5.75</v>
+      </c>
+      <c r="F22" s="3">
         <f t="shared" si="2"/>
         <v>98.275862068965523</v>
       </c>
-      <c r="K20" s="3">
+      <c r="G22" s="3">
         <f t="shared" si="3"/>
         <v>15.724137931034484</v>
       </c>
-      <c r="L20" s="10">
-        <f t="shared" si="6"/>
+      <c r="H22" s="9">
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>5.5</v>
-      </c>
-      <c r="B21" s="3">
+      <c r="I22" s="10">
+        <v>5.25</v>
+      </c>
+      <c r="J22" s="3">
+        <f>+L22/1.16</f>
+        <v>108.62068965517243</v>
+      </c>
+      <c r="K22" s="3">
+        <f>+J22*16%</f>
+        <v>17.379310344827587</v>
+      </c>
+      <c r="L22" s="9">
+        <f>L21+6</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>103.44827586206897</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="1"/>
+        <v>16.551724137931036</v>
+      </c>
+      <c r="D23" s="9">
         <f t="shared" si="4"/>
-        <v>93.103448275862078</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" si="5"/>
-        <v>14.896551724137932</v>
-      </c>
-      <c r="D21" s="10">
-        <f t="shared" si="8"/>
-        <v>108</v>
-      </c>
-      <c r="E21" s="11">
-        <v>5.75</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>98.275862068965523</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="1"/>
-        <v>15.724137931034484</v>
-      </c>
-      <c r="H21" s="10">
-        <f t="shared" si="7"/>
-        <v>114</v>
-      </c>
-      <c r="I21" s="11">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+        <v>120</v>
+      </c>
+      <c r="E23" s="10">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3">
         <f t="shared" si="2"/>
         <v>103.44827586206897</v>
       </c>
-      <c r="K21" s="3">
+      <c r="G23" s="3">
         <f t="shared" si="3"/>
         <v>16.551724137931036</v>
       </c>
-      <c r="L21" s="10">
-        <f t="shared" si="6"/>
+      <c r="H23" s="9">
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>5.75</v>
-      </c>
-      <c r="B22" s="3">
+      <c r="I23" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="J23" s="3">
+        <f>+L23/1.16</f>
+        <v>113.79310344827587</v>
+      </c>
+      <c r="K23" s="3">
+        <f>+J23*16%</f>
+        <v>18.206896551724139</v>
+      </c>
+      <c r="L23" s="9">
+        <f>L22+6</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>6.25</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>108.62068965517243</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="1"/>
+        <v>17.379310344827587</v>
+      </c>
+      <c r="D24" s="9">
         <f t="shared" si="4"/>
-        <v>98.275862068965523</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" si="5"/>
-        <v>15.724137931034484</v>
-      </c>
-      <c r="D22" s="10">
-        <f t="shared" si="8"/>
-        <v>114</v>
-      </c>
-      <c r="E22" s="11">
-        <v>6</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>103.44827586206897</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="1"/>
-        <v>16.551724137931036</v>
-      </c>
-      <c r="H22" s="10">
-        <f t="shared" si="7"/>
-        <v>120</v>
-      </c>
-      <c r="I22" s="11">
-        <v>5.25</v>
-      </c>
-      <c r="J22" s="3">
+        <v>126</v>
+      </c>
+      <c r="E24" s="10">
+        <v>6.25</v>
+      </c>
+      <c r="F24" s="3">
         <f t="shared" si="2"/>
         <v>108.62068965517243</v>
       </c>
-      <c r="K22" s="3">
+      <c r="G24" s="3">
         <f t="shared" si="3"/>
         <v>17.379310344827587</v>
       </c>
-      <c r="L22" s="10">
-        <f t="shared" si="6"/>
+      <c r="H24" s="9">
+        <f t="shared" si="5"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>6</v>
-      </c>
-      <c r="B23" s="3">
+      <c r="I24" s="10">
+        <v>5.75</v>
+      </c>
+      <c r="J24" s="3">
+        <f>+L24/1.16</f>
+        <v>118.96551724137932</v>
+      </c>
+      <c r="K24" s="3">
+        <f>+J24*16%</f>
+        <v>19.03448275862069</v>
+      </c>
+      <c r="L24" s="9">
+        <f>L23+6</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>113.79310344827587</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="1"/>
+        <v>18.206896551724139</v>
+      </c>
+      <c r="D25" s="9">
         <f t="shared" si="4"/>
-        <v>103.44827586206897</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" si="5"/>
-        <v>16.551724137931036</v>
-      </c>
-      <c r="D23" s="10">
-        <f t="shared" si="8"/>
-        <v>120</v>
-      </c>
-      <c r="E23" s="11">
-        <v>6.25</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>108.62068965517243</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="1"/>
-        <v>17.379310344827587</v>
-      </c>
-      <c r="H23" s="10">
-        <f t="shared" si="7"/>
-        <v>126</v>
-      </c>
-      <c r="I23" s="11">
-        <v>5.5</v>
-      </c>
-      <c r="J23" s="3">
+        <v>132</v>
+      </c>
+      <c r="E25" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="F25" s="3">
         <f t="shared" si="2"/>
         <v>113.79310344827587</v>
       </c>
-      <c r="K23" s="3">
+      <c r="G25" s="3">
         <f t="shared" si="3"/>
         <v>18.206896551724139</v>
       </c>
-      <c r="L23" s="10">
-        <f t="shared" si="6"/>
+      <c r="H25" s="9">
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>6.25</v>
-      </c>
-      <c r="B24" s="3">
+      <c r="I25" s="10">
+        <v>6</v>
+      </c>
+      <c r="J25" s="3">
+        <f>+L25/1.16</f>
+        <v>124.13793103448276</v>
+      </c>
+      <c r="K25" s="3">
+        <f>+J25*16%</f>
+        <v>19.862068965517242</v>
+      </c>
+      <c r="L25" s="9">
+        <f>L24+6</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>6.75</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>118.96551724137932</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="1"/>
+        <v>19.03448275862069</v>
+      </c>
+      <c r="D26" s="9">
         <f t="shared" si="4"/>
-        <v>108.62068965517243</v>
-      </c>
-      <c r="C24" s="3">
-        <f t="shared" si="5"/>
-        <v>17.379310344827587</v>
-      </c>
-      <c r="D24" s="10">
-        <f t="shared" si="8"/>
-        <v>126</v>
-      </c>
-      <c r="E24" s="11">
-        <v>6.5</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" si="0"/>
-        <v>113.79310344827587</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" si="1"/>
-        <v>18.206896551724139</v>
-      </c>
-      <c r="H24" s="10">
-        <f t="shared" si="7"/>
-        <v>132</v>
-      </c>
-      <c r="I24" s="11">
-        <v>5.75</v>
-      </c>
-      <c r="J24" s="3">
+        <v>138</v>
+      </c>
+      <c r="E26" s="10">
+        <v>6.75</v>
+      </c>
+      <c r="F26" s="3">
         <f t="shared" si="2"/>
         <v>118.96551724137932</v>
       </c>
-      <c r="K24" s="3">
+      <c r="G26" s="3">
         <f t="shared" si="3"/>
         <v>19.03448275862069</v>
       </c>
-      <c r="L24" s="10">
-        <f t="shared" si="6"/>
+      <c r="H26" s="9">
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>6.5</v>
-      </c>
-      <c r="B25" s="3">
+      <c r="I26" s="10">
+        <v>6.25</v>
+      </c>
+      <c r="J26" s="3">
+        <f>+L26/1.16</f>
+        <v>129.31034482758622</v>
+      </c>
+      <c r="K26" s="3">
+        <f>+J26*16%</f>
+        <v>20.689655172413797</v>
+      </c>
+      <c r="L26" s="9">
+        <f>L25+6</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>7</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="0"/>
+        <v>124.13793103448276</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="1"/>
+        <v>19.862068965517242</v>
+      </c>
+      <c r="D27" s="9">
         <f t="shared" si="4"/>
-        <v>113.79310344827587</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" si="5"/>
-        <v>18.206896551724139</v>
-      </c>
-      <c r="D25" s="10">
-        <f t="shared" si="8"/>
-        <v>132</v>
-      </c>
-      <c r="E25" s="11">
-        <v>6.75</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="0"/>
-        <v>118.96551724137932</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="1"/>
-        <v>19.03448275862069</v>
-      </c>
-      <c r="H25" s="10">
-        <f t="shared" si="7"/>
-        <v>138</v>
-      </c>
-      <c r="I25" s="11">
-        <v>6</v>
-      </c>
-      <c r="J25" s="3">
+        <v>144</v>
+      </c>
+      <c r="E27" s="10">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3">
         <f t="shared" si="2"/>
         <v>124.13793103448276</v>
       </c>
-      <c r="K25" s="3">
+      <c r="G27" s="3">
         <f t="shared" si="3"/>
         <v>19.862068965517242</v>
       </c>
-      <c r="L25" s="10">
-        <f t="shared" si="6"/>
+      <c r="H27" s="9">
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>6.75</v>
-      </c>
-      <c r="B26" s="3">
+      <c r="I27" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="J27" s="3">
+        <f>+L27/1.16</f>
+        <v>134.48275862068965</v>
+      </c>
+      <c r="K27" s="3">
+        <f>+J27*16%</f>
+        <v>21.517241379310345</v>
+      </c>
+      <c r="L27" s="9">
+        <f>L26+6</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>7.25</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="0"/>
+        <v>129.31034482758622</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="1"/>
+        <v>20.689655172413797</v>
+      </c>
+      <c r="D28" s="9">
         <f t="shared" si="4"/>
-        <v>118.96551724137932</v>
-      </c>
-      <c r="C26" s="3">
-        <f t="shared" si="5"/>
-        <v>19.03448275862069</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" si="8"/>
-        <v>138</v>
-      </c>
-      <c r="E26" s="11">
-        <v>7</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" si="0"/>
-        <v>124.13793103448276</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="1"/>
-        <v>19.862068965517242</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="7"/>
-        <v>144</v>
-      </c>
-      <c r="I26" s="11">
-        <v>6.25</v>
-      </c>
-      <c r="J26" s="3">
+        <v>150</v>
+      </c>
+      <c r="E28" s="10">
+        <v>7.25</v>
+      </c>
+      <c r="F28" s="3">
         <f t="shared" si="2"/>
         <v>129.31034482758622</v>
       </c>
-      <c r="K26" s="3">
+      <c r="G28" s="3">
         <f t="shared" si="3"/>
         <v>20.689655172413797</v>
       </c>
-      <c r="L26" s="10">
-        <f t="shared" si="6"/>
+      <c r="H28" s="9">
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
-        <v>7</v>
-      </c>
-      <c r="B27" s="3">
+      <c r="I28" s="10">
+        <v>6.75</v>
+      </c>
+      <c r="J28" s="3">
+        <f>+L28/1.16</f>
+        <v>139.65517241379311</v>
+      </c>
+      <c r="K28" s="3">
+        <f>+J28*16%</f>
+        <v>22.344827586206897</v>
+      </c>
+      <c r="L28" s="9">
+        <f>L27+6</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="B29" s="3">
+        <f t="shared" si="0"/>
+        <v>134.48275862068965</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="1"/>
+        <v>21.517241379310345</v>
+      </c>
+      <c r="D29" s="9">
         <f t="shared" si="4"/>
-        <v>124.13793103448276</v>
-      </c>
-      <c r="C27" s="3">
-        <f t="shared" si="5"/>
-        <v>19.862068965517242</v>
-      </c>
-      <c r="D27" s="10">
-        <f t="shared" si="8"/>
-        <v>144</v>
-      </c>
-      <c r="E27" s="11">
-        <v>7.25</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="0"/>
-        <v>129.31034482758622</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="1"/>
-        <v>20.689655172413797</v>
-      </c>
-      <c r="H27" s="10">
-        <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="I27" s="11">
-        <v>6.5</v>
-      </c>
-      <c r="J27" s="3">
+        <v>156</v>
+      </c>
+      <c r="E29" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="F29" s="3">
         <f t="shared" si="2"/>
         <v>134.48275862068965</v>
       </c>
-      <c r="K27" s="3">
+      <c r="G29" s="3">
         <f t="shared" si="3"/>
         <v>21.517241379310345</v>
       </c>
-      <c r="L27" s="10">
-        <f t="shared" si="6"/>
+      <c r="H29" s="9">
+        <f t="shared" si="5"/>
         <v>156</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>7.25</v>
-      </c>
-      <c r="B28" s="3">
+      <c r="I29" s="10">
+        <v>7</v>
+      </c>
+      <c r="J29" s="3">
+        <f>+L29/1.16</f>
+        <v>144.82758620689657</v>
+      </c>
+      <c r="K29" s="3">
+        <f>+J29*16%</f>
+        <v>23.172413793103452</v>
+      </c>
+      <c r="L29" s="9">
+        <f>L28+6</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>7.75</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
+        <v>139.65517241379311</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="1"/>
+        <v>22.344827586206897</v>
+      </c>
+      <c r="D30" s="9">
         <f t="shared" si="4"/>
-        <v>129.31034482758622</v>
-      </c>
-      <c r="C28" s="3">
-        <f t="shared" si="5"/>
-        <v>20.689655172413797</v>
-      </c>
-      <c r="D28" s="10">
-        <f t="shared" si="8"/>
-        <v>150</v>
-      </c>
-      <c r="E28" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="0"/>
-        <v>134.48275862068965</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="1"/>
-        <v>21.517241379310345</v>
-      </c>
-      <c r="H28" s="10">
-        <f t="shared" si="7"/>
-        <v>156</v>
-      </c>
-      <c r="I28" s="11">
-        <v>6.75</v>
-      </c>
-      <c r="J28" s="3">
+        <v>162</v>
+      </c>
+      <c r="E30" s="10">
+        <v>7.75</v>
+      </c>
+      <c r="F30" s="3">
         <f t="shared" si="2"/>
         <v>139.65517241379311</v>
       </c>
-      <c r="K28" s="3">
+      <c r="G30" s="3">
         <f t="shared" si="3"/>
         <v>22.344827586206897</v>
       </c>
-      <c r="L28" s="10">
-        <f t="shared" si="6"/>
+      <c r="H30" s="9">
+        <f t="shared" si="5"/>
         <v>162</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="B29" s="3">
+      <c r="I30" s="10">
+        <v>7.25</v>
+      </c>
+      <c r="J30" s="3">
+        <f>+L30/1.16</f>
+        <v>150</v>
+      </c>
+      <c r="K30" s="3">
+        <f>+J30*16%</f>
+        <v>24</v>
+      </c>
+      <c r="L30" s="9">
+        <f>L29+6</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3">
+        <f t="shared" si="0"/>
+        <v>144.82758620689657</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="1"/>
+        <v>23.172413793103452</v>
+      </c>
+      <c r="D31" s="9">
         <f t="shared" si="4"/>
-        <v>134.48275862068965</v>
-      </c>
-      <c r="C29" s="3">
-        <f t="shared" si="5"/>
-        <v>21.517241379310345</v>
-      </c>
-      <c r="D29" s="10">
-        <f t="shared" si="8"/>
-        <v>156</v>
-      </c>
-      <c r="E29" s="11">
-        <v>7.75</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" si="0"/>
-        <v>139.65517241379311</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" si="1"/>
-        <v>22.344827586206897</v>
-      </c>
-      <c r="H29" s="10">
-        <f t="shared" si="7"/>
-        <v>162</v>
-      </c>
-      <c r="I29" s="11">
-        <v>7</v>
-      </c>
-      <c r="J29" s="3">
+        <v>168</v>
+      </c>
+      <c r="E31" s="10">
+        <v>8</v>
+      </c>
+      <c r="F31" s="3">
         <f t="shared" si="2"/>
         <v>144.82758620689657</v>
       </c>
-      <c r="K29" s="3">
+      <c r="G31" s="3">
         <f t="shared" si="3"/>
         <v>23.172413793103452</v>
       </c>
-      <c r="L29" s="10">
-        <f t="shared" si="6"/>
+      <c r="H31" s="9">
+        <f t="shared" si="5"/>
         <v>168</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>7.75</v>
-      </c>
-      <c r="B30" s="3">
+      <c r="I31" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="J31" s="3">
+        <f>+L31/1.16</f>
+        <v>155.17241379310346</v>
+      </c>
+      <c r="K31" s="3">
+        <f>+J31*16%</f>
+        <v>24.827586206896555</v>
+      </c>
+      <c r="L31" s="9">
+        <f>L30+6</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>8.25</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D32" s="9">
         <f t="shared" si="4"/>
-        <v>139.65517241379311</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" si="5"/>
-        <v>22.344827586206897</v>
-      </c>
-      <c r="D30" s="10">
-        <f t="shared" si="8"/>
-        <v>162</v>
-      </c>
-      <c r="E30" s="11">
-        <v>8</v>
-      </c>
-      <c r="F30" s="3">
-        <f t="shared" si="0"/>
-        <v>144.82758620689657</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="1"/>
-        <v>23.172413793103452</v>
-      </c>
-      <c r="H30" s="10">
-        <f t="shared" si="7"/>
-        <v>168</v>
-      </c>
-      <c r="I30" s="11">
-        <v>7.25</v>
-      </c>
-      <c r="J30" s="3">
+        <v>174</v>
+      </c>
+      <c r="E32" s="10">
+        <v>8.25</v>
+      </c>
+      <c r="F32" s="3">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K30" s="3">
+      <c r="G32" s="3">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="L30" s="10">
-        <f t="shared" si="6"/>
+      <c r="H32" s="9">
+        <f t="shared" si="5"/>
         <v>174</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>8</v>
-      </c>
-      <c r="B31" s="3">
+      <c r="I32" s="10">
+        <v>7.75</v>
+      </c>
+      <c r="J32" s="3">
+        <f>+L32/1.16</f>
+        <v>160.34482758620692</v>
+      </c>
+      <c r="K32" s="3">
+        <f>+J32*16%</f>
+        <v>25.655172413793107</v>
+      </c>
+      <c r="L32" s="9">
+        <f>L31+6</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="B33" s="3">
+        <f t="shared" si="0"/>
+        <v>155.17241379310346</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="1"/>
+        <v>24.827586206896555</v>
+      </c>
+      <c r="D33" s="9">
         <f t="shared" si="4"/>
-        <v>144.82758620689657</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" si="5"/>
-        <v>23.172413793103452</v>
-      </c>
-      <c r="D31" s="10">
-        <f t="shared" si="8"/>
-        <v>168</v>
-      </c>
-      <c r="E31" s="11">
-        <v>8.25</v>
-      </c>
-      <c r="F31" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="H31" s="10">
-        <f t="shared" si="7"/>
-        <v>174</v>
-      </c>
-      <c r="I31" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="J31" s="3">
+        <v>180</v>
+      </c>
+      <c r="E33" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="F33" s="3">
         <f t="shared" si="2"/>
         <v>155.17241379310346</v>
       </c>
-      <c r="K31" s="3">
+      <c r="G33" s="3">
         <f t="shared" si="3"/>
         <v>24.827586206896555</v>
       </c>
-      <c r="L31" s="10">
-        <f t="shared" si="6"/>
+      <c r="H33" s="9">
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <v>8.25</v>
-      </c>
-      <c r="B32" s="3">
+      <c r="I33" s="10">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3">
+        <f>+L33/1.16</f>
+        <v>165.51724137931035</v>
+      </c>
+      <c r="K33" s="3">
+        <f>+J33*16%</f>
+        <v>26.482758620689655</v>
+      </c>
+      <c r="L33" s="9">
+        <f>L32+6</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>8.75</v>
+      </c>
+      <c r="B34" s="3">
+        <f t="shared" si="0"/>
+        <v>160.34482758620692</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="1"/>
+        <v>25.655172413793107</v>
+      </c>
+      <c r="D34" s="9">
         <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-      <c r="C32" s="3">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="D32" s="10">
-        <f t="shared" si="8"/>
-        <v>174</v>
-      </c>
-      <c r="E32" s="11">
-        <v>8.5</v>
-      </c>
-      <c r="F32" s="3">
-        <f t="shared" si="0"/>
-        <v>155.17241379310346</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" si="1"/>
-        <v>24.827586206896555</v>
-      </c>
-      <c r="H32" s="10">
-        <f t="shared" si="7"/>
-        <v>180</v>
-      </c>
-      <c r="I32" s="11">
-        <v>7.75</v>
-      </c>
-      <c r="J32" s="3">
+        <v>186</v>
+      </c>
+      <c r="E34" s="10">
+        <v>8.75</v>
+      </c>
+      <c r="F34" s="3">
         <f t="shared" si="2"/>
         <v>160.34482758620692</v>
       </c>
-      <c r="K32" s="3">
+      <c r="G34" s="3">
         <f t="shared" si="3"/>
         <v>25.655172413793107</v>
       </c>
-      <c r="L32" s="10">
-        <f t="shared" si="6"/>
+      <c r="H34" s="9">
+        <f t="shared" si="5"/>
         <v>186</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <v>8.5</v>
-      </c>
-      <c r="B33" s="3">
+      <c r="I34" s="10">
+        <v>8.25</v>
+      </c>
+      <c r="J34" s="3">
+        <f>+L34/1.16</f>
+        <v>170.68965517241381</v>
+      </c>
+      <c r="K34" s="3">
+        <f>+J34*16%</f>
+        <v>27.31034482758621</v>
+      </c>
+      <c r="L34" s="9">
+        <f>L33+6</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3">
+        <f t="shared" si="0"/>
+        <v>165.51724137931035</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="1"/>
+        <v>26.482758620689655</v>
+      </c>
+      <c r="D35" s="9">
         <f t="shared" si="4"/>
-        <v>155.17241379310346</v>
-      </c>
-      <c r="C33" s="3">
-        <f t="shared" si="5"/>
-        <v>24.827586206896555</v>
-      </c>
-      <c r="D33" s="10">
-        <f t="shared" si="8"/>
-        <v>180</v>
-      </c>
-      <c r="E33" s="11">
-        <v>8.75</v>
-      </c>
-      <c r="F33" s="3">
-        <f t="shared" si="0"/>
-        <v>160.34482758620692</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" si="1"/>
-        <v>25.655172413793107</v>
-      </c>
-      <c r="H33" s="10">
-        <f t="shared" si="7"/>
-        <v>186</v>
-      </c>
-      <c r="I33" s="11">
-        <v>8</v>
-      </c>
-      <c r="J33" s="3">
+        <v>192</v>
+      </c>
+      <c r="E35" s="10">
+        <v>9</v>
+      </c>
+      <c r="F35" s="3">
         <f t="shared" si="2"/>
         <v>165.51724137931035</v>
       </c>
-      <c r="K33" s="3">
+      <c r="G35" s="3">
         <f t="shared" si="3"/>
         <v>26.482758620689655</v>
       </c>
-      <c r="L33" s="10">
-        <f t="shared" si="6"/>
+      <c r="H35" s="9">
+        <f t="shared" si="5"/>
         <v>192</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>8.75</v>
-      </c>
-      <c r="B34" s="3">
+      <c r="I35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="12">
+        <f>+L35/1.16</f>
+        <v>172.41379310344828</v>
+      </c>
+      <c r="K35" s="12">
+        <f>+J35*16%</f>
+        <v>27.586206896551726</v>
+      </c>
+      <c r="L35" s="13">
+        <f>L34+2</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>9.25</v>
+      </c>
+      <c r="B36" s="3">
+        <f t="shared" si="0"/>
+        <v>170.68965517241381</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="1"/>
+        <v>27.31034482758621</v>
+      </c>
+      <c r="D36" s="9">
         <f t="shared" si="4"/>
-        <v>160.34482758620692</v>
-      </c>
-      <c r="C34" s="3">
-        <f t="shared" si="5"/>
-        <v>25.655172413793107</v>
-      </c>
-      <c r="D34" s="10">
-        <f t="shared" si="8"/>
-        <v>186</v>
-      </c>
-      <c r="E34" s="11">
-        <v>9</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" si="0"/>
-        <v>165.51724137931035</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" si="1"/>
-        <v>26.482758620689655</v>
-      </c>
-      <c r="H34" s="10">
-        <f t="shared" si="7"/>
-        <v>192</v>
-      </c>
-      <c r="I34" s="11">
-        <v>8.25</v>
-      </c>
-      <c r="J34" s="3">
+        <v>198</v>
+      </c>
+      <c r="E36" s="10">
+        <v>9.25</v>
+      </c>
+      <c r="F36" s="3">
         <f t="shared" si="2"/>
         <v>170.68965517241381</v>
       </c>
-      <c r="K34" s="3">
+      <c r="G36" s="3">
         <f t="shared" si="3"/>
         <v>27.31034482758621</v>
       </c>
-      <c r="L34" s="10">
-        <f t="shared" si="6"/>
+      <c r="H36" s="9">
+        <f t="shared" si="5"/>
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
-        <v>9</v>
-      </c>
-      <c r="B35" s="3">
-        <f t="shared" si="4"/>
-        <v>165.51724137931035</v>
-      </c>
-      <c r="C35" s="3">
-        <f t="shared" si="5"/>
-        <v>26.482758620689655</v>
-      </c>
-      <c r="D35" s="10">
-        <f t="shared" si="8"/>
-        <v>192</v>
-      </c>
-      <c r="E35" s="12">
-        <v>9.25</v>
-      </c>
-      <c r="F35" s="3">
-        <f t="shared" si="0"/>
-        <v>170.68965517241381</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" si="1"/>
-        <v>27.31034482758621</v>
-      </c>
-      <c r="H35" s="10">
-        <f t="shared" si="7"/>
-        <v>198</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="14">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="12">
+        <f t="shared" si="0"/>
+        <v>172.41379310344828</v>
+      </c>
+      <c r="C37" s="12">
+        <f t="shared" si="1"/>
+        <v>27.586206896551726</v>
+      </c>
+      <c r="D37" s="13">
+        <f>D36+2</f>
+        <v>200</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="3">
         <f t="shared" si="2"/>
         <v>172.41379310344828</v>
       </c>
-      <c r="K35" s="14">
+      <c r="G37" s="3">
         <f t="shared" si="3"/>
         <v>27.586206896551726</v>
       </c>
-      <c r="L35" s="15">
-        <f>L34+2</f>
+      <c r="H37" s="9">
+        <f>H36+2</f>
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
-        <v>9.25</v>
-      </c>
-      <c r="B36" s="3">
-        <f t="shared" si="4"/>
-        <v>170.68965517241381</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" si="5"/>
-        <v>27.31034482758621</v>
-      </c>
-      <c r="D36" s="10">
-        <f t="shared" si="8"/>
-        <v>198</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="3">
-        <f t="shared" si="0"/>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="25">
+        <f t="shared" ref="B39" si="6">+D39/1.16</f>
         <v>172.41379310344828</v>
       </c>
-      <c r="G36" s="3">
-        <f t="shared" si="1"/>
+      <c r="C39" s="25">
+        <f t="shared" ref="C39" si="7">+B39*16%</f>
         <v>27.586206896551726</v>
       </c>
-      <c r="H36" s="10">
-        <f>H35+2</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="14">
-        <f t="shared" si="4"/>
-        <v>172.41379310344828</v>
-      </c>
-      <c r="C37" s="14">
-        <f t="shared" si="5"/>
-        <v>27.586206896551726</v>
-      </c>
-      <c r="D37" s="15">
-        <f>D36+2</f>
-        <v>200</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="27">
-        <f t="shared" ref="B39" si="9">+D39/1.16</f>
-        <v>172.41379310344828</v>
-      </c>
-      <c r="C39" s="27">
-        <f t="shared" ref="C39" si="10">+B39*16%</f>
-        <v>27.586206896551726</v>
-      </c>
-      <c r="D39" s="28">
+      <c r="D39" s="26">
         <v>200</v>
       </c>
     </row>
@@ -4444,10 +4459,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
